--- a/config_3.23/act_hhl_ty_config.xlsx
+++ b/config_3.23/act_hhl_ty_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
   <si>
     <t>line|</t>
   </si>
@@ -233,26 +233,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>act_006_hhl_</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_006_hhl_</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>美的空调</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>华为荣耀手机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫地机器人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>1</t>
     </r>
@@ -274,10 +254,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>卫龙亲嘴烧30片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>2000福利券</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -310,6 +286,42 @@
   </si>
   <si>
     <t>ty_icon_yxb_5</t>
+  </si>
+  <si>
+    <t>act_007_hhl_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔记本电脑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivo收集</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的微波炉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔记本电脑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivo收集</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的微波炉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄罗斯巧克力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄罗斯巧克力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -750,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -814,16 +826,16 @@
         <v>47</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>45</v>
       </c>
       <c r="F2" s="11">
-        <v>1615852800</v>
+        <v>1616457600</v>
       </c>
       <c r="G2" s="11">
-        <v>1616428799</v>
+        <v>1617033599</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>35</v>
@@ -846,16 +858,16 @@
         <v>48</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>46</v>
       </c>
       <c r="F3" s="11">
-        <v>1615852800</v>
+        <v>1616457600</v>
       </c>
       <c r="G3" s="11">
-        <v>1616428799</v>
+        <v>1617033599</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>44</v>
@@ -877,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -921,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>36</v>
@@ -942,7 +954,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>37</v>
@@ -963,7 +975,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>38</v>
@@ -982,10 +994,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D5" s="13">
         <v>60000</v>
@@ -1001,10 +1013,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D6" s="10">
         <v>18000</v>
@@ -1020,7 +1032,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>49</v>
@@ -1039,10 +1051,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D8" s="10">
         <v>7200</v>
@@ -1077,7 +1089,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>36</v>
@@ -1098,7 +1110,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>37</v>
@@ -1119,7 +1131,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>38</v>
@@ -1138,10 +1150,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D13" s="13">
         <v>60000</v>
@@ -1157,10 +1169,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D14" s="10">
         <v>18000</v>
@@ -1176,7 +1188,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>49</v>
@@ -1195,10 +1207,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D16" s="10">
         <v>7200</v>
@@ -1430,6 +1442,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="2"/>
@@ -1440,7 +1472,7 @@
 </pixelators>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
@@ -1451,7 +1483,7 @@
 </sheetInterline>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
   <rangeList sheetStid="1" master=""/>
   <rangeList sheetStid="2" master=""/>
@@ -1461,58 +1493,38 @@
 </allowEditUser>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>
--- a/config_3.23/act_hhl_ty_config.xlsx
+++ b/config_3.23/act_hhl_ty_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
   <si>
     <t>line|</t>
   </si>
@@ -296,10 +296,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>vivo收集</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>美的微波炉</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -308,10 +304,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>vivo收集</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>美的微波炉</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -321,6 +313,10 @@
   </si>
   <si>
     <t>俄罗斯巧克力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivo手机</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -890,7 +886,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -954,7 +950,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>37</v>
@@ -975,7 +971,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>38</v>
@@ -1032,7 +1028,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>49</v>
@@ -1089,7 +1085,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>36</v>
@@ -1110,7 +1106,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>37</v>
@@ -1131,7 +1127,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>38</v>
@@ -1188,7 +1184,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>49</v>
@@ -1442,13 +1438,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1462,25 +1470,13 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1494,13 +1490,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1512,13 +1508,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/config_3.23/act_hhl_ty_config.xlsx
+++ b/config_3.23/act_hhl_ty_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -758,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -819,7 +819,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="11">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>58</v>
@@ -851,7 +851,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="11">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>58</v>
@@ -885,7 +885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1438,6 +1438,37 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
@@ -1448,37 +1479,6 @@
 </sheetInterline>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
   <rangeList sheetStid="1" master=""/>
@@ -1490,13 +1490,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1508,13 +1508,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
